--- a/sound/frequency calc.xlsx
+++ b/sound/frequency calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PolyProject-Admin\Downloads\josh\sound\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PolyProject-Admin\Documents\GitHub\Tetris\sound\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="126">
   <si>
     <t>clock</t>
   </si>
@@ -3856,6 +3856,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>G5</t>
   </si>
 </sst>
 </file>
@@ -4239,8 +4242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C700354-3D40-4C59-8E7C-6F71B762864F}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
-      <selection activeCell="R81" sqref="R81"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5475,7 +5478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
@@ -5513,7 +5516,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
@@ -5551,7 +5554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
@@ -5589,7 +5592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
@@ -5627,7 +5630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
@@ -5665,7 +5668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
@@ -5703,7 +5706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>42</v>
       </c>
@@ -5779,7 +5782,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>43</v>
       </c>
@@ -5817,7 +5820,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>44</v>
       </c>
@@ -5855,7 +5858,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>45</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
@@ -5931,7 +5934,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>47</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>48</v>
       </c>
@@ -6007,7 +6010,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>49</v>
       </c>
@@ -6044,8 +6047,11 @@
       <c r="N47" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="Q47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>50</v>
       </c>
